--- a/test_files/program/execution.xlsx
+++ b/test_files/program/execution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brt.hawayda\Desktop\42\minishell-jnde\unit_tester\test_files\program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brt.hawayda\Desktop\42\minishell-jnde\minishell-tester\test_files\program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2E45FB-B352-4EED-B90C-314C71B57DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B890A6D4-9210-4391-AA58-6B566D2050F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>$&gt; /bin/echo</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>$&gt; history</t>
-  </si>
-  <si>
-    <t>$&gt; cat | cat | cat | ls</t>
   </si>
   <si>
     <t>$&gt; echo | echo</t>
@@ -732,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A108"/>
+  <dimension ref="A1:A107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -843,8 +840,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -858,8 +855,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -903,13 +900,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
@@ -983,13 +980,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1013,13 +1010,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1188,13 +1185,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1203,8 +1200,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1213,8 +1210,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1276,11 +1273,6 @@
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
